--- a/DEX_-_Aula_07_-_Lift_DeFi_-_Planilha_Auxiliar.xlsx
+++ b/DEX_-_Aula_07_-_Lift_DeFi_-_Planilha_Auxiliar.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Order Book" sheetId="1" r:id="rId1"/>
     <sheet name="Uniswap V2 - Preço" sheetId="2" r:id="rId2"/>
     <sheet name="Uniswap V2 - Taxas" sheetId="3" r:id="rId3"/>
     <sheet name="Uniswap V2 - LP e IL" sheetId="4" r:id="rId4"/>
+    <sheet name="Uniswap V2 - Taxas (teste)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="59">
   <si>
     <t>Tipo de Ordem</t>
   </si>
@@ -199,13 +200,25 @@
   </si>
   <si>
     <t>Pagamento da Compra de USDC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B (-) taxa</t>
+  </si>
+  <si>
+    <t>"3326659993326659993"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="15">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -217,6 +230,10 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00000_ ;_-[$$-409]* \-#,##0.00000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00000000_-;\-* #,##0.00000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.000000000000_-;\-* #,##0.000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.0000000000000_-;\-* #,##0.0000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -558,7 +575,7 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -746,6 +763,14 @@
     <xf numFmtId="0" fontId="13" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="6" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="6" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="183" fontId="6" fillId="19" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="13" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,31 +937,31 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3704</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2735</c:v>
+                  <c:v>4502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2251</c:v>
+                  <c:v>4244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1974</c:v>
+                  <c:v>3292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1746</c:v>
+                  <c:v>2319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1306</c:v>
+                  <c:v>1446</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>729</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,34 +1005,34 @@
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>780</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>855</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1228</c:v>
+                  <c:v>1549</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1343</c:v>
+                  <c:v>1626</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2063</c:v>
+                  <c:v>1783</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2794</c:v>
+                  <c:v>2643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3134</c:v>
+                  <c:v>3108</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3300</c:v>
+                  <c:v>3663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,11 +1488,11 @@
       </c>
       <c r="C3" s="13">
         <f t="shared" ref="C3:C9" ca="1" si="0">ROUND(1000*RAND(),0)</f>
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D10" ca="1" si="1">D4+C3</f>
-        <v>3704</v>
+        <v>5450</v>
       </c>
       <c r="E3" s="13"/>
     </row>
@@ -1480,11 +1505,11 @@
       </c>
       <c r="C4" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>484</v>
+        <v>258</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>2735</v>
+        <v>4502</v>
       </c>
       <c r="E4" s="13"/>
     </row>
@@ -1497,11 +1522,11 @@
       </c>
       <c r="C5" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>952</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>2251</v>
+        <v>4244</v>
       </c>
       <c r="E5" s="13"/>
     </row>
@@ -1514,11 +1539,11 @@
       </c>
       <c r="C6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>228</v>
+        <v>973</v>
       </c>
       <c r="D6" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>1974</v>
+        <v>3292</v>
       </c>
       <c r="E6" s="13"/>
     </row>
@@ -1531,11 +1556,11 @@
       </c>
       <c r="C7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>440</v>
+        <v>873</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>1746</v>
+        <v>2319</v>
       </c>
       <c r="E7" s="13"/>
     </row>
@@ -1548,11 +1573,11 @@
       </c>
       <c r="C8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>1306</v>
+        <v>1446</v>
       </c>
       <c r="E8" s="13"/>
     </row>
@@ -1565,11 +1590,11 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>645</v>
+        <v>735</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>729</v>
+        <v>831</v>
       </c>
       <c r="E9" s="13"/>
     </row>
@@ -1582,11 +1607,11 @@
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10:C11" ca="1" si="2">ROUND(100*RAND(),0)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E10" s="13"/>
     </row>
@@ -1599,11 +1624,11 @@
       </c>
       <c r="C11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D11" s="13">
         <f ca="1">C11</f>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -1627,12 +1652,12 @@
       </c>
       <c r="C13" s="13">
         <f t="shared" ref="C13:C14" ca="1" si="3">ROUND(100*RAND(),0)</f>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
         <f t="shared" ref="E13:E14" ca="1" si="4">C13</f>
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1644,12 +1669,12 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1661,12 +1686,12 @@
       </c>
       <c r="C15" s="13">
         <f t="shared" ref="C15:C22" ca="1" si="5">ROUND(1000*RAND(),0)</f>
-        <v>706</v>
+        <v>202</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
         <f t="shared" ref="E15:E22" ca="1" si="6">E14+C15</f>
-        <v>780</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1678,12 +1703,12 @@
       </c>
       <c r="C16" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>944</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>855</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1695,12 +1720,12 @@
       </c>
       <c r="C17" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>1228</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1712,12 +1737,12 @@
       </c>
       <c r="C18" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>1343</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1729,12 +1754,12 @@
       </c>
       <c r="C19" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>720</v>
+        <v>157</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>2063</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1746,12 +1771,12 @@
       </c>
       <c r="C20" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>731</v>
+        <v>860</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>2794</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1763,12 +1788,12 @@
       </c>
       <c r="C21" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>3134</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
@@ -1780,12 +1805,12 @@
       </c>
       <c r="C22" s="13">
         <f t="shared" ca="1" si="5"/>
-        <v>166</v>
+        <v>555</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>3300</v>
+        <v>3663</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2547,7 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -3825,4 +3850,398 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="44.25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="81">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="127">
+        <f>D8*(1-D9)</f>
+        <v>0.4985</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C12" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="86">
+        <f>D13*E13</f>
+        <v>10</v>
+      </c>
+      <c r="D13" s="89">
+        <v>1</v>
+      </c>
+      <c r="E13" s="88">
+        <v>10</v>
+      </c>
+      <c r="G13" s="27">
+        <f>D13/E13</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="98">
+        <f>C13</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="85">
+        <f>D13+D10</f>
+        <v>1.4984999999999999</v>
+      </c>
+      <c r="E15" s="129">
+        <f>C15/D15</f>
+        <v>6.6733400066733406</v>
+      </c>
+      <c r="G15" s="27">
+        <f>D15/E15</f>
+        <v>0.22455022499999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="130"/>
+    </row>
+    <row r="17" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B17" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="94">
+        <f>E17*G17</f>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="132">
+        <f>E13-E15</f>
+        <v>3.3266599933266594</v>
+      </c>
+      <c r="G17" s="96">
+        <f>D8/E17</f>
+        <v>0.15030090270812441</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="133"/>
+    </row>
+    <row r="19" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="90">
+        <f>D19*E19</f>
+        <v>10.01001001001001</v>
+      </c>
+      <c r="D19" s="101">
+        <f>D13+D17</f>
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="131">
+        <f>E15</f>
+        <v>6.6733400066733406</v>
+      </c>
+      <c r="G19" s="27">
+        <f t="shared" ref="G19" si="0">D19/E19</f>
+        <v>0.22477499999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D20" s="75"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="77"/>
+    </row>
+    <row r="22" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B23" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="91">
+        <v>3.3266599933266501</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C27" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="100">
+        <f>D26*(1-D27)</f>
+        <v>3.3166800133466703</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C30" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="86">
+        <f>D31*E31</f>
+        <v>10.01001001001001</v>
+      </c>
+      <c r="D31" s="89">
+        <f>D19</f>
+        <v>1.5</v>
+      </c>
+      <c r="E31" s="88">
+        <f>E19</f>
+        <v>6.6733400066733406</v>
+      </c>
+      <c r="G31" s="27">
+        <f>D31/E31</f>
+        <v>0.22477499999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="98">
+        <f>C31</f>
+        <v>10.01001001001001</v>
+      </c>
+      <c r="D33" s="101">
+        <f>C33/E33</f>
+        <v>1.0020009959889908</v>
+      </c>
+      <c r="E33" s="97">
+        <f>E31+D28</f>
+        <v>9.9900200200200118</v>
+      </c>
+      <c r="G33" s="27">
+        <f>D33/E33</f>
+        <v>0.10030019899669668</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B35" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94">
+        <f>D31-D33</f>
+        <v>0.49799900401100916</v>
+      </c>
+      <c r="E35" s="95">
+        <f>D35/G35</f>
+        <v>3.3266599933266501</v>
+      </c>
+      <c r="G35" s="96">
+        <f>D35/D26</f>
+        <v>0.14969939970120349</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="90">
+        <f>D37*E37</f>
+        <v>10.020009959889899</v>
+      </c>
+      <c r="D37" s="134">
+        <f>D33</f>
+        <v>1.0020009959889908</v>
+      </c>
+      <c r="E37" s="128">
+        <f>E35+E31</f>
+        <v>9.9999999999999911</v>
+      </c>
+      <c r="G37" s="27">
+        <f t="shared" ref="G37" si="1">D37/E37</f>
+        <v>0.10020009959889917</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>